--- a/biology/Médecine/Distance_pH-métrique/Distance_pH-métrique.xlsx
+++ b/biology/Médecine/Distance_pH-métrique/Distance_pH-métrique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Distance_pH-m%C3%A9trique</t>
+          <t>Distance_pH-métrique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La distance pH-métrique est une variable dimensionnelle utilisée en médecine afin d'établir un diagnostic du reflux gastro-œsophagien. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Distance_pH-m%C3%A9trique</t>
+          <t>Distance_pH-métrique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Découverte et fonctionnement de la distance pH-métrique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 1970[1], la pH-métrie est utilisée pour le diagnostic du reflux gastro-œsophagien. En 2013, le professeur Gascoin et Mohamed Ben Abdallah reprennent les éléments avancés dans la thèse de Wafae El Hamdani en appliquant les principes de l'inductance[2], comme détaillé dans cette présentation. 
-Les scientifiques sont ainsi aptes à appliquer ces principes à la chimie[3] en calculant le facteur de Gascoin.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 1970, la pH-métrie est utilisée pour le diagnostic du reflux gastro-œsophagien. En 2013, le professeur Gascoin et Mohamed Ben Abdallah reprennent les éléments avancés dans la thèse de Wafae El Hamdani en appliquant les principes de l'inductance, comme détaillé dans cette présentation. 
+Les scientifiques sont ainsi aptes à appliquer ces principes à la chimie en calculant le facteur de Gascoin.
 Si on note Ψ le trajet pH-z et Ω le trajet pKa-z, z étant un point virtuel quelconque, on a
         G
         ≡
@@ -540,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Distance_pH-m%C3%A9trique</t>
+          <t>Distance_pH-métrique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,7 +572,9 @@
           <t>Application</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La distance pH-métrique est principalement utilisée en médecine afin de diagnostiquer le reflux gastro-oesophagien.
 </t>
